--- a/medicine/Enfance/La_Ville_qui_n'existait_pas_(Philippe_Ébly)/La_Ville_qui_n'existait_pas_(Philippe_Ébly).xlsx
+++ b/medicine/Enfance/La_Ville_qui_n'existait_pas_(Philippe_Ébly)/La_Ville_qui_n'existait_pas_(Philippe_Ébly).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Ville_qui_n%27existait_pas_(Philippe_%C3%89bly)</t>
+          <t>La_Ville_qui_n'existait_pas_(Philippe_Ébly)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Ville qui n'existait pas est le huitième roman de la série Les Conquérants de l'impossible écrite par Philippe Ébly. Ce roman a été édité pour la première fois en 1975 chez Hachette dans la collection Bibliothèque verte. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Ville_qui_n%27existait_pas_(Philippe_%C3%89bly)</t>
+          <t>La_Ville_qui_n'existait_pas_(Philippe_Ébly)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Serge, Xolotl et Thibaut, alors qu'ils pratiquent la spéléologie dans les galeries des volcans d'Auvergne, accèdent à un souterrain creusé de la main de l'homme. S'enhardissant, ils continuent leur chemin et accèdent, après avoir franchi un mystérieux mur constitué d'un champ de force, à une immense grotte de 60 km de tour et 3000m de haut, formée il y a 50 millions d'années au centre du volcan du Cantal. Cette grotte forme une gigantesque voûte, de plusieurs kilomètres de long, dans laquelle se trouve une ville. Ils découvrent que cette ville s'appelle Sanderloz et qu'elle est peuplée par des descendants des arabes qui avaient pénétré en France en l'an 732 et qui avaient été stoppés par Charles Martel. Cette ville et sa civilisation a été fondée par Ja'far al-Sâdiq, un grand alchimiste arabe.
 Ils vont faire la connaissance de plusieurs personnes: une bergère, le fils (prénommé Hamid) du chef de la ville qui porte le titre d'Archonte, la secrétaire du chef (Djaïlah), un technicien (Mouloud), un lieutenant des gardes, etc.  Accueillis dans la demeure d'Hamid, ils vont vivre plusieurs jours dans la ville, et vont vite constater qu'ils sont condamnés à rester toute leur vie dans cette ville. Celle-ci bénéficie d'un éclairage mystérieux, est dirigée par le « Conseil des Douze » ; ses habitants bénéficient du service de petits oursons servant d'esclaves et venant aux ordres dès qu'on les appelle (ces oursons sont tous appelés Bruno).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Ville_qui_n%27existait_pas_(Philippe_%C3%89bly)</t>
+          <t>La_Ville_qui_n'existait_pas_(Philippe_Ébly)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Les différentes éditions françaises</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1975 : Hachette, Bibliothèque verte, cartonné, texte original. Illustrations d'Yvon Le Gall. 154 p.  (ISBN 2-01-001888-5)
 1984 : Hachette, Bibliothèque verte, cartonné (série hachurée). Illustrations d'Arias-Crespo.
